--- a/data training.xlsx
+++ b/data training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\PycharmProjects\DL_News_Sentiment_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B21E2A12-41BC-4DAC-A8C4-6D4892428694}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80614A60-FA48-45AD-89AC-7AA3E8130C80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9D238F3B-EDB5-4FC1-848B-D0B53007D3CC}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="128">
   <si>
     <t>berita</t>
   </si>
@@ -944,17 +944,20 @@
 Bahkan, Anda juga akan mendapatkan kemudahan dalam membuat dan mencetak label pengiriman melalui sistem Shipper, sehingga Anda tidak perlu lagi menulisnya secara manual. Label pengiriman tersebut dapat Anda tempelkan langsung ke setiap paket pengiriman, sehingga sangat praktis, hemat waktu dan memudahkan pekerjaan Anda.</t>
   </si>
   <si>
-    <t>NETRAL</t>
-  </si>
-  <si>
-    <t>NEGATIF</t>
+    <t>Negatif</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>Positive</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -971,11 +974,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1013,15 +1011,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1340,8 +1335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA95319-A878-4DBB-B98A-FB841CE7CDA2}">
   <dimension ref="A1:B124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1350,992 +1345,992 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
+      <c r="A8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
+      <c r="A9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
+      <c r="A10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
+      <c r="A11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
+      <c r="A12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
+      <c r="A13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
+      <c r="A14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
+      <c r="A15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
+      <c r="A16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
+      <c r="A17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
+      <c r="A18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
+      <c r="A19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
+      <c r="A20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
+      <c r="A21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
+      <c r="A22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
+      <c r="A23" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
+      <c r="A24" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
+      <c r="A25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
+      <c r="A26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
+      <c r="A27" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
+      <c r="A28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
+      <c r="A29" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30">
-        <v>2</v>
+      <c r="A30" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
+      <c r="A31" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
+      <c r="A32" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33">
-        <v>2</v>
+      <c r="A33" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34">
-        <v>2</v>
+        <v>21</v>
+      </c>
+      <c r="B34" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="B35" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36">
-        <v>2</v>
+        <v>32</v>
+      </c>
+      <c r="B36" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37">
-        <v>2</v>
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38">
-        <v>2</v>
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="B39" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
+        <v>51</v>
+      </c>
+      <c r="B40" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41">
-        <v>2</v>
+        <v>52</v>
+      </c>
+      <c r="B41" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42">
-        <v>2</v>
+        <v>53</v>
+      </c>
+      <c r="B42" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="B43" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44">
-        <v>2</v>
+        <v>64</v>
+      </c>
+      <c r="B44" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="B45" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46">
-        <v>2</v>
+        <v>66</v>
+      </c>
+      <c r="B46" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47">
-        <v>2</v>
+        <v>69</v>
+      </c>
+      <c r="B47" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48">
-        <v>2</v>
+        <v>70</v>
+      </c>
+      <c r="B48" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49">
-        <v>2</v>
+        <v>72</v>
+      </c>
+      <c r="B49" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50">
-        <v>2</v>
+        <v>73</v>
+      </c>
+      <c r="B50" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
+        <v>74</v>
+      </c>
+      <c r="B51" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
+        <v>77</v>
+      </c>
+      <c r="B52" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
+        <v>78</v>
+      </c>
+      <c r="B53" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54">
-        <v>2</v>
+        <v>79</v>
+      </c>
+      <c r="B54" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55">
-        <v>2</v>
+        <v>81</v>
+      </c>
+      <c r="B55" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56">
-        <v>2</v>
+      <c r="A56" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B56" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57">
-        <v>2</v>
+      <c r="A57" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B57" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58">
-        <v>2</v>
+      <c r="A58" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B58" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59">
-        <v>2</v>
+      <c r="A59" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B59" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60">
-        <v>2</v>
+      <c r="A60" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B60" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61">
-        <v>1</v>
+      <c r="A61" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B61" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62">
-        <v>2</v>
+      <c r="A62" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B62" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63">
-        <v>2</v>
+      <c r="A63" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B63" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64">
-        <v>1</v>
+      <c r="A64" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B64" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65">
-        <v>1</v>
+      <c r="A65" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B65" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66">
-        <v>1</v>
+      <c r="A66" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B66" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67">
-        <v>2</v>
+      <c r="A67" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B67" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68">
-        <v>2</v>
+      <c r="A68" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B68" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69">
-        <v>1</v>
+      <c r="A69" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B69" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70">
-        <v>1</v>
+      <c r="A70" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B70" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71">
-        <v>2</v>
+      <c r="A71" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B71" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>72</v>
-      </c>
-      <c r="B72">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B72" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>73</v>
-      </c>
-      <c r="B73">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B73" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>74</v>
-      </c>
-      <c r="B74">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="B74" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>75</v>
-      </c>
-      <c r="B75">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B75" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>76</v>
-      </c>
-      <c r="B76">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="B76" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>77</v>
-      </c>
-      <c r="B77">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="B77" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>78</v>
-      </c>
-      <c r="B78">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="B78" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>79</v>
-      </c>
-      <c r="B79">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="B79" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>80</v>
-      </c>
-      <c r="B80">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="B80" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>81</v>
-      </c>
-      <c r="B81">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="B81" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>14</v>
+      </c>
+      <c r="B83" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>17</v>
+      </c>
+      <c r="B86" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>18</v>
+      </c>
+      <c r="B87" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>19</v>
+      </c>
+      <c r="B88" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>20</v>
+      </c>
+      <c r="B89" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>24</v>
+      </c>
+      <c r="B90" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>25</v>
+      </c>
+      <c r="B91" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>26</v>
+      </c>
+      <c r="B92" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>27</v>
+      </c>
+      <c r="B93" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>28</v>
+      </c>
+      <c r="B94" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>30</v>
+      </c>
+      <c r="B95" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>33</v>
+      </c>
+      <c r="B96" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>34</v>
+      </c>
+      <c r="B97" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>36</v>
+      </c>
+      <c r="B98" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>37</v>
+      </c>
+      <c r="B99" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>38</v>
+      </c>
+      <c r="B100" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>41</v>
+      </c>
+      <c r="B101" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>42</v>
+      </c>
+      <c r="B102" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>44</v>
+      </c>
+      <c r="B103" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>46</v>
+      </c>
+      <c r="B104" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>47</v>
+      </c>
+      <c r="B105" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>48</v>
+      </c>
+      <c r="B106" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>49</v>
+      </c>
+      <c r="B107" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>50</v>
+      </c>
+      <c r="B108" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>54</v>
+      </c>
+      <c r="B109" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>55</v>
+      </c>
+      <c r="B110" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>56</v>
+      </c>
+      <c r="B111" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>57</v>
+      </c>
+      <c r="B112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>58</v>
+      </c>
+      <c r="B113" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>59</v>
+      </c>
+      <c r="B114" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>60</v>
+      </c>
+      <c r="B115" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>62</v>
+      </c>
+      <c r="B116" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>63</v>
+      </c>
+      <c r="B117" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>67</v>
+      </c>
+      <c r="B118" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>68</v>
+      </c>
+      <c r="B119" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>71</v>
+      </c>
+      <c r="B120" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>75</v>
+      </c>
+      <c r="B121" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>76</v>
+      </c>
+      <c r="B122" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>80</v>
+      </c>
+      <c r="B123" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>82</v>
       </c>
-      <c r="B82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>125</v>
+      <c r="B124" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
